--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W20_H200_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W20_H200_B16.xlsx
@@ -502,25 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.535031847133758</v>
+        <v>0.5468277945619335</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2105263157894737</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9180327868852459</v>
+        <v>0.9890710382513661</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5165165165165165</v>
+        <v>0.5435435435435435</v>
       </c>
       <c r="F2" t="n">
-        <v>0.676056338028169</v>
+        <v>0.7042801556420234</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5045045045045045</v>
+        <v>0.4714714714714714</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1674250876635402</v>
+        <v>0.08564997265969855</v>
       </c>
       <c r="J2" t="n">
-        <v>2261.645997833465</v>
+        <v>1021.04546754266</v>
       </c>
       <c r="K2" t="n">
-        <v>7874548.424224138</v>
+        <v>1287785.639729582</v>
       </c>
       <c r="L2" t="n">
-        <v>2806.162579791865</v>
+        <v>1134.806432714224</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.4640980295048376</v>
+        <v>0.7605647567354346</v>
       </c>
     </row>
   </sheetData>
